--- a/exports/todo_list.xlsx
+++ b/exports/todo_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Check all mail</t>
+  </si>
+  <si>
+    <t>5tan</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +477,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exports/todo_list.xlsx
+++ b/exports/todo_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -50,10 +50,22 @@
     <t>Check all mail</t>
   </si>
   <si>
-    <t>5tan</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Des 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Des 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Des 3</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,7 +415,7 @@
   <cols>
     <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
@@ -479,7 +491,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -492,6 +504,40 @@
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/exports/todo_list.xlsx
+++ b/exports/todo_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -35,37 +35,13 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Complete all task</t>
-  </si>
-  <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>Around Home</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Check all mail</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Des 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Des 2</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Des 3</t>
+    <t>NodeJS</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Build body</t>
   </si>
 </sst>
 </file>
@@ -405,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,8 +391,8 @@
   <cols>
     <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
   </cols>
@@ -470,74 +446,6 @@
       </c>
       <c r="E3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
